--- a/btsAccountsTest.xlsx
+++ b/btsAccountsTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="4580" yWindow="20" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Production" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -43,15 +43,6 @@
   </si>
   <si>
     <t>fossil.williams.1140@faiyamrahman.com</t>
-  </si>
-  <si>
-    <t>faiyam.earth.1200@NETORG112903.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>metro.grassfed.828@faiyamrahman.com</t>
-  </si>
-  <si>
-    <t>grassfed.bts.398@faiyamrahman.com</t>
   </si>
 </sst>
 </file>
@@ -445,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -501,48 +492,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/btsAccountsTest.xlsx
+++ b/btsAccountsTest.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24526"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="20" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Production" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,37 +21,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>EmailPassword</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>EmailPassword</t>
-  </si>
-  <si>
     <t>MLBPassword</t>
   </si>
   <si>
+    <t>beatthestreak1</t>
+  </si>
+  <si>
     <t>faiyam@faiyamrahman.com</t>
   </si>
   <si>
+    <t>fossil.williams.1140@faiyamrahman.com</t>
+  </si>
+  <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>beatthestreak1</t>
-  </si>
-  <si>
-    <t>fossil.williams.1140@faiyamrahman.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -63,6 +63,22 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,8 +113,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -106,11 +124,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -189,7 +209,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -224,7 +243,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -259,16 +277,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -390,46 +412,7 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -439,26 +422,20 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -469,13 +446,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -483,17 +460,18 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/btsAccountsTest.xlsx
+++ b/btsAccountsTest.xlsx
@@ -19,7 +19,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>Done. 1: ('Giancarlo', 'Stanton', 'Miami Marlins'), 2: ('Adam', 'Lind', 'Toronto Blue Jays')</t>
+  </si>
+  <si>
+    <t>Done. 1: ('Yasiel', 'Puig', 'Los Angeles Dodgers'), 2: ('Adam', 'Lind', 'Toronto Blue Jays')</t>
+  </si>
   <si>
     <t>Email</t>
   </si>
@@ -49,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,22 +72,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,10 +106,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -124,9 +115,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,59 +408,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="E2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
+      <c r="E3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/btsAccountsTest.xlsx
+++ b/btsAccountsTest.xlsx
@@ -1,33 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24526"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Production" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Production" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>7-8</t>
   </si>
   <si>
-    <t>Done. 1: ('Giancarlo', 'Stanton', 'Miami Marlins'), 2: ('Adam', 'Lind', 'Toronto Blue Jays')</t>
-  </si>
-  <si>
-    <t>Done. 1: ('Yasiel', 'Puig', 'Los Angeles Dodgers'), 2: ('Adam', 'Lind', 'Toronto Blue Jays')</t>
+    <t>Done. 1: ('Adam', 'Lind', 'Toronto Blue Jays'), 2: ('Yasiel', 'Puig', 'Los Angeles Dodgers')</t>
+  </si>
+  <si>
+    <t>Done. 1: ('Robinson', 'Cano', 'Seattle Mariners'), 2: ('Adam', 'Lind', 'Toronto Blue Jays')</t>
   </si>
   <si>
     <t>Email</t>
@@ -57,8 +53,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,11 +64,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,19 +104,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -128,10 +125,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -287,7 +284,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -296,13 +293,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -312,7 +309,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -321,7 +318,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -330,7 +327,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -340,12 +337,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -376,7 +373,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -395,7 +392,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -407,79 +404,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col width="9.10" min="1" max="1"/>
+    <col width="9.10" min="2" max="2"/>
+    <col width="9.10" min="3" max="3"/>
+    <col width="9.10" min="4" max="4"/>
+    <col width="9.10" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row spans="1:5" r="1">
+      <c t="s" s="1" r="A1">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c t="s" s="1" r="B1">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c t="s" s="1" r="C1">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c t="s" s="1" r="D1">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c t="s" s="1" r="E1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row spans="1:5" r="2">
+      <c t="n" r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c t="s" r="B2">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c t="s" r="C2">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c t="s" r="D2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c t="s" r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row spans="1:5" r="3">
+      <c t="n" r="A3">
+        <v>1</v>
+      </c>
+      <c t="s" r="B3">
+        <v>9</v>
+      </c>
+      <c t="s" r="C3">
+        <v>10</v>
+      </c>
+      <c t="s" r="D3">
+        <v>7</v>
+      </c>
+      <c t="s" r="E3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/btsAccountsTest.xlsx
+++ b/btsAccountsTest.xlsx
@@ -15,17 +15,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>7-8</t>
   </si>
   <si>
+    <t>7-9</t>
+  </si>
+  <si>
     <t>Done. 1: ('Adam', 'Lind', 'Toronto Blue Jays'), 2: ('Yasiel', 'Puig', 'Los Angeles Dodgers')</t>
   </si>
   <si>
     <t>Done. 1: ('Robinson', 'Cano', 'Seattle Mariners'), 2: ('Adam', 'Lind', 'Toronto Blue Jays')</t>
   </si>
   <si>
+    <t>Done. 1: ('Robinson', 'Cano', 'sea'), 2: ()</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
@@ -36,6 +42,15 @@
   </si>
   <si>
     <t>MLBPassword</t>
+  </si>
+  <si>
+    <t>NOT DONE</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>VM</t>
   </si>
   <si>
     <t>beatthestreak1</t>
@@ -404,11 +419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1" activeCell="A1"/>
@@ -416,62 +431,92 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="9.10" min="1" max="1"/>
-    <col width="9.10" min="2" max="2"/>
-    <col width="9.10" min="3" max="3"/>
-    <col width="9.10" min="4" max="4"/>
-    <col width="9.10" min="5" max="5"/>
+    <col min="1" max="1" width="9.10"/>
+    <col min="2" max="2" width="9.10"/>
+    <col min="3" max="3" width="9.10"/>
+    <col min="4" max="4" width="9.10"/>
+    <col min="5" max="5" width="9.10"/>
+    <col min="6" max="6" width="9.10"/>
+    <col min="7" max="7" width="9.10"/>
+    <col min="8" max="8" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:5" r="1">
-      <c t="s" s="1" r="A1">
+    <row r="1" spans="1:8">
+      <c s="1" r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c s="1" r="B1" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c s="1" r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c s="1" r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c s="1" r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c s="1" r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c s="1" r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="C1">
-        <v>4</v>
-      </c>
-      <c t="s" s="1" r="D1">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="E1">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:5" r="2">
-      <c t="n" r="A2">
-        <v>0</v>
-      </c>
-      <c t="s" r="B2">
-        <v>8</v>
-      </c>
-      <c t="s" r="C2">
-        <v>10</v>
-      </c>
-      <c t="s" r="D2">
-        <v>7</v>
-      </c>
-      <c t="s" r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row spans="1:5" r="3">
-      <c t="n" r="A3">
-        <v>1</v>
-      </c>
-      <c t="s" r="B3">
+      <c r="H3" t="s">
         <v>9</v>
-      </c>
-      <c t="s" r="C3">
-        <v>10</v>
-      </c>
-      <c t="s" r="D3">
-        <v>7</v>
-      </c>
-      <c t="s" r="E3">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/btsAccountsTest.xlsx
+++ b/btsAccountsTest.xlsx
@@ -29,7 +29,10 @@
     <t>Done. 1: ('Robinson', 'Cano', 'Seattle Mariners'), 2: ('Adam', 'Lind', 'Toronto Blue Jays')</t>
   </si>
   <si>
-    <t>Done. 1: ('Robinson', 'Cano', 'sea'), 2: ()</t>
+    <t>Done. 1: ('Robinson', 'Cano', 'sea'), 2: ('Michael', 'Brantley', 'cle')</t>
+  </si>
+  <si>
+    <t>Done. 1: ('Troy', 'Tulowitzki', 'col'), 2: ()</t>
   </si>
   <si>
     <t>Email</t>
@@ -42,9 +45,6 @@
   </si>
   <si>
     <t>MLBPassword</t>
-  </si>
-  <si>
-    <t>NOT DONE</t>
   </si>
   <si>
     <t>Strategy</t>
@@ -443,16 +443,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c s="1" r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c s="1" r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c s="1" r="C1" t="s">
         <v>7</v>
       </c>
-      <c s="1" r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c s="1" r="C1" t="s">
-        <v>6</v>
-      </c>
       <c s="1" r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c s="1" r="E1" t="s">
         <v>10</v>
@@ -516,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/btsAccountsTest.xlsx
+++ b/btsAccountsTest.xlsx
@@ -15,25 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t>7-8</t>
-  </si>
-  <si>
-    <t>7-9</t>
-  </si>
-  <si>
-    <t>Done. 1: ('Adam', 'Lind', 'Toronto Blue Jays'), 2: ('Yasiel', 'Puig', 'Los Angeles Dodgers')</t>
-  </si>
-  <si>
-    <t>Done. 1: ('Robinson', 'Cano', 'Seattle Mariners'), 2: ('Adam', 'Lind', 'Toronto Blue Jays')</t>
-  </si>
-  <si>
-    <t>Done. 1: ('Robinson', 'Cano', 'sea'), 2: ('Michael', 'Brantley', 'cle')</t>
-  </si>
-  <si>
-    <t>Done. 1: ('Troy', 'Tulowitzki', 'col'), 2: ()</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Email</t>
   </si>
@@ -47,15 +29,12 @@
     <t>MLBPassword</t>
   </si>
   <si>
-    <t>Strategy</t>
-  </si>
-  <si>
-    <t>VM</t>
-  </si>
-  <si>
     <t>beatthestreak1</t>
   </si>
   <si>
+    <t>faiyam.daft.154@faiyamrahman.com</t>
+  </si>
+  <si>
     <t>faiyam@faiyamrahman.com</t>
   </si>
   <si>
@@ -63,6 +42,9 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>water.water.354@faiyamrahman.com</t>
   </si>
 </sst>
 </file>
@@ -419,11 +401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1" activeCell="A1"/>
@@ -431,92 +413,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.10"/>
-    <col min="2" max="2" width="9.10"/>
-    <col min="3" max="3" width="9.10"/>
-    <col min="4" max="4" width="9.10"/>
-    <col min="5" max="5" width="9.10"/>
-    <col min="6" max="6" width="9.10"/>
-    <col min="7" max="7" width="9.10"/>
-    <col min="8" max="8" width="9.10"/>
+    <col width="9.10" min="1" max="1"/>
+    <col width="9.10" min="2" max="2"/>
+    <col width="9.10" min="3" max="3"/>
+    <col width="9.10" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c s="1" r="A1" t="s">
+    <row spans="1:4" r="1">
+      <c t="s" s="1" r="A1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="B1">
+        <v>0</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+    </row>
+    <row spans="1:4" r="2">
+      <c t="n" r="A2">
+        <v>0</v>
+      </c>
+      <c t="s" r="B2">
+        <v>6</v>
+      </c>
+      <c t="s" r="C2">
         <v>8</v>
       </c>
-      <c s="1" r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c s="1" r="C1" t="s">
+      <c t="s" r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row spans="1:4" r="3">
+      <c t="n" r="A3">
+        <v>1</v>
+      </c>
+      <c t="s" r="B3">
         <v>7</v>
       </c>
-      <c s="1" r="D1" t="s">
+      <c t="s" r="C3">
+        <v>8</v>
+      </c>
+      <c t="s" r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row spans="1:4" r="4">
+      <c t="n" r="A4">
+        <v>2</v>
+      </c>
+      <c t="s" r="B4">
+        <v>5</v>
+      </c>
+      <c t="s" r="C4">
+        <v>8</v>
+      </c>
+      <c t="s" r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row spans="1:4" r="5">
+      <c t="n" r="A5">
+        <v>3</v>
+      </c>
+      <c t="s" r="B5">
         <v>9</v>
       </c>
-      <c s="1" r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c s="1" r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c s="1" r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" r="H1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
+      <c t="s" r="C5">
+        <v>8</v>
+      </c>
+      <c t="s" r="D5">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
